--- a/test_cases/soporte/Tabla Decisiones.xlsx
+++ b/test_cases/soporte/Tabla Decisiones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lucas/Documents/GitHub/TestingAplicaciones-BeSharps-TPO/test_cases/soporte/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35097831-6C67-E944-B233-4B203D8B8841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E328FE4-019D-DC48-B662-441424849EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16320" xr2:uid="{DA8C5FF2-DDAC-7E4C-9851-94A7118A164C}"/>
   </bookViews>
@@ -281,12 +281,6 @@
     <t>Caso de prueba 1</t>
   </si>
   <si>
-    <t>Cumple con todos los requisitos</t>
-  </si>
-  <si>
-    <t>No cumple con alguno de los requisitos</t>
-  </si>
-  <si>
     <t>Caso de prueba 2 a 64</t>
   </si>
   <si>
@@ -311,28 +305,34 @@
     <t>La condición de Alias es opcional</t>
   </si>
   <si>
-    <t>Caso de Prueba 1: El correo cumple con las dos reglas obligatorias de la IEEE y tiene alias</t>
-  </si>
-  <si>
-    <t>Caso de Prueba 2: El correo Cumple con las dos reglas obligatorias de la IEEE y no tiene alias</t>
-  </si>
-  <si>
-    <t>Caso de Prueba 3: El correo tiene un @ y contiene más de 3 strings separados por puntos después del @ y tiene alias</t>
-  </si>
-  <si>
-    <t>Caso de Prueba 4: El  correo tiene un @ y contiene más de 3 strings separados por puntos después del @ y no tiene alias</t>
-  </si>
-  <si>
-    <t>Caso de Prueba 5: El correo no tiene un @ y contiene menos de 3 strings separados por puntos después del @ y tiene alias</t>
-  </si>
-  <si>
-    <t>Caso de Prueba 6: El correo no tiene un @ y contiene más de 3 strings separados por puntos después del @ y no tiene alias</t>
-  </si>
-  <si>
-    <t>Caso de Prueba 7: El correo no tiene un @ y contiene menos de 3 strings separados por puntos después del @ y tiene alias</t>
-  </si>
-  <si>
-    <t>Caso de Prueba 8: El correo no tiene un @ y contiene más de 3 strings separados por puntos después del @ y no tiene alias</t>
+    <t>No cumple con alguno de los requisitos, no se acepta</t>
+  </si>
+  <si>
+    <t>Cumple con todos los requisitos, se acepta</t>
+  </si>
+  <si>
+    <t>Caso de Prueba 1: El correo cumple con las dos reglas obligatorias de la IEEE y tiene alias, se acepta</t>
+  </si>
+  <si>
+    <t>Caso de Prueba 3: El correo tiene un @ y contiene más de 3 strings separados por puntos después del @ y tiene alias, no se acepta</t>
+  </si>
+  <si>
+    <t>Caso de Prueba 2: El correo Cumple con las dos reglas obligatorias de la IEEE y no tiene alias, se acepta</t>
+  </si>
+  <si>
+    <t>Caso de Prueba 4: El  correo tiene un @ y contiene más de 3 strings separados por puntos después del @ y no tiene alias, no se acepta</t>
+  </si>
+  <si>
+    <t>Caso de Prueba 5: El correo no tiene un @ y contiene menos de 3 strings separados por puntos después del @ y tiene alias, no se acepta</t>
+  </si>
+  <si>
+    <t>Caso de Prueba 6: El correo no tiene un @ y contiene más de 3 strings separados por puntos después del @ y no tiene alias, no se acepta</t>
+  </si>
+  <si>
+    <t>Caso de Prueba 7: El correo no tiene un @ y contiene menos de 3 strings separados por puntos después del @ y tiene alias, no se acepta</t>
+  </si>
+  <si>
+    <t>Caso de Prueba 8: El correo no tiene un @ y contiene más de 3 strings separados por puntos después del @ y no tiene alias, no se acepta</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -523,26 +523,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -857,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA076C19-A4E0-FD46-B873-A390BAD6417D}">
-  <dimension ref="B2:BN57"/>
+  <dimension ref="B2:BN67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -873,16 +875,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:66" x14ac:dyDescent="0.2">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
@@ -946,36 +948,36 @@
       <c r="BN3" s="17"/>
     </row>
     <row r="4" spans="2:66" x14ac:dyDescent="0.2">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
       <c r="BN4" s="17"/>
     </row>
     <row r="5" spans="2:66" x14ac:dyDescent="0.2">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
       <c r="BN5" s="17"/>
     </row>
     <row r="6" spans="2:66" x14ac:dyDescent="0.2">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
       <c r="BN6" s="17"/>
     </row>
     <row r="7" spans="2:66" x14ac:dyDescent="0.2">
@@ -983,19 +985,19 @@
       <c r="BN7" s="17"/>
     </row>
     <row r="8" spans="2:66" x14ac:dyDescent="0.2">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
       <c r="BN8" s="17"/>
     </row>
     <row r="9" spans="2:66" x14ac:dyDescent="0.2">
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
       <c r="BN9" s="17"/>
     </row>
     <row r="10" spans="2:66" x14ac:dyDescent="0.2">
@@ -2552,29 +2554,29 @@
       <c r="B24" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="24"/>
+      <c r="C24" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="25"/>
       <c r="BN24" s="17"/>
     </row>
     <row r="25" spans="2:66" x14ac:dyDescent="0.2">
       <c r="B25" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
@@ -2640,357 +2642,390 @@
       <c r="BM25" s="19"/>
       <c r="BN25" s="20"/>
     </row>
-    <row r="29" spans="2:66" x14ac:dyDescent="0.2">
-      <c r="B29" s="28" t="s">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B39" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="31"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="16"/>
+      <c r="J40" s="17"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="J41" s="17"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B42" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="J42" s="17"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="J43" s="17"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="28"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="J44" s="17"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="16"/>
+      <c r="J45" s="17"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="J46" s="17"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B47" s="28"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="J47" s="17"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B48" s="28"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="J48" s="17"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B49" s="16"/>
+      <c r="J49" s="17"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B50" s="1"/>
+      <c r="C50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B51" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="30"/>
-    </row>
-    <row r="30" spans="2:66" x14ac:dyDescent="0.2">
-      <c r="B30" s="16"/>
-      <c r="J30" s="17"/>
-    </row>
-    <row r="31" spans="2:66" x14ac:dyDescent="0.2">
-      <c r="B31" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="J31" s="17"/>
-    </row>
-    <row r="32" spans="2:66" x14ac:dyDescent="0.2">
-      <c r="B32" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="J32" s="17"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="J33" s="17"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="J34" s="17"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="16"/>
-      <c r="J35" s="17"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="31" t="s">
+      <c r="C51" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B52" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B53" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="J36" s="17"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="J37" s="17"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="22"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="J38" s="17"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="16"/>
-      <c r="J39" s="17"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="1"/>
-      <c r="C40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B43" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B44" s="7" t="s">
+      <c r="C53" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B54" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="9"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="10" t="s">
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="9"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="13"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="16"/>
-      <c r="J46" s="17"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="16"/>
-      <c r="J47" s="17"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B48" s="16"/>
-      <c r="J48" s="17"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="33" t="s">
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="13"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B56" s="16"/>
+      <c r="J56" s="17"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B57" s="16"/>
+      <c r="J57" s="17"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B58" s="16"/>
+      <c r="J58" s="17"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B59" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="35"/>
-      <c r="J49" s="17"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="22" t="s">
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="17"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B60" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="24"/>
-      <c r="J50" s="17"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="22" t="s">
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="17"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B61" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="17"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B62" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="24"/>
-      <c r="J51" s="17"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B52" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="24"/>
-      <c r="J52" s="17"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="22" t="s">
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="17"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B63" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="24"/>
-      <c r="J53" s="17"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B54" s="22" t="s">
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="17"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B64" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="24"/>
-      <c r="J54" s="17"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B55" s="22" t="s">
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="17"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B65" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="24"/>
-      <c r="J55" s="17"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B56" s="22" t="s">
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="17"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B66" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="24"/>
-      <c r="J56" s="17"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="25" t="s">
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="17"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B67" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B63:I63"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B65:I65"/>
+    <mergeCell ref="B66:I66"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B60:I60"/>
+    <mergeCell ref="B61:I61"/>
+    <mergeCell ref="B62:I62"/>
+    <mergeCell ref="B59:I59"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C24:O24"/>
     <mergeCell ref="C25:O25"/>
@@ -2999,23 +3034,6 @@
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B57:G57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
